--- a/天正/天华-T20给排水辅助说明文档.xlsx
+++ b/天正/天华-T20给排水辅助说明文档.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="269">
   <si>
     <t>ID</t>
   </si>
@@ -43,9 +43,6 @@
     <t>System</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
     <t>DocScale</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
   </si>
   <si>
     <t>系统</t>
-  </si>
-  <si>
-    <t>尺寸</t>
   </si>
   <si>
     <t>出图比例</t>
@@ -819,6 +813,300 @@
   </si>
   <si>
     <t>注:给排水专业索引号区间为 2000000 - 3000000 (不包含3000000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通设备：-1；消火栓:0；喷头:1
+井:2；水泵:3；雨水口:4；5：大小接头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SizeX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SizeY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长向尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽向尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwtFireExtinguisher</t>
+  </si>
+  <si>
+    <t>LabelLocationID</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>TextFormatType</t>
+  </si>
+  <si>
+    <t>SpecificationType</t>
+  </si>
+  <si>
+    <t>LayType</t>
+  </si>
+  <si>
+    <t>ScaleType</t>
+  </si>
+  <si>
+    <t>IsDim</t>
+  </si>
+  <si>
+    <t>ProtectRadius</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>灭火器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标注插入点</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>文字格式类型</t>
+  </si>
+  <si>
+    <t>布置方式</t>
+  </si>
+  <si>
+    <t>灭火器数量</t>
+  </si>
+  <si>
+    <t>比例类型</t>
+  </si>
+  <si>
+    <t>是否标注</t>
+  </si>
+  <si>
+    <t>保护半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度</t>
+  </si>
+  <si>
+    <t>TwtFireExtinguisherBox</t>
+  </si>
+  <si>
+    <t>实体类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭火器箱体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoxName</t>
+  </si>
+  <si>
+    <t>BoxType</t>
+  </si>
+  <si>
+    <t>BoxLength</t>
+  </si>
+  <si>
+    <t>BoxWidth</t>
+  </si>
+  <si>
+    <t>箱体名称</t>
+  </si>
+  <si>
+    <t>箱体类型</t>
+  </si>
+  <si>
+    <t>箱体长</t>
+  </si>
+  <si>
+    <t>箱体宽</t>
+  </si>
+  <si>
+    <t>0:数量-型号规格； 1:型号规格×数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭火器选型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右图索引号
+(从0起始)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右图索引号
+(从0起始)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按数量布置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单布</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>随当前比例缩放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>固定比例</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -864,7 +1152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1159,13 +1447,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1256,15 +1626,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1277,27 +1683,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1307,7 +1692,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1333,13 +1739,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2714625</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>685852</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1377,13 +1783,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2009775</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2714723</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>704905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1421,13 +1827,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2847975</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>895454</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1465,13 +1871,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1952625</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2676626</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>904992</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1509,13 +1915,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1933575</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2705206</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>962143</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1553,13 +1959,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2810080</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>1524195</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1597,13 +2003,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1743075</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2695708</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>1200308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1641,13 +2047,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2867238</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>723980</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1685,13 +2091,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2867238</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>657303</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1729,13 +2135,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1876425</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2590900</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>819252</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1773,13 +2179,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2819606</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>428673</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1805,6 +2211,50 @@
         <a:xfrm>
           <a:off x="6210300" y="47882175"/>
           <a:ext cx="1476581" cy="342948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2600442</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>1133608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905625" y="52682775"/>
+          <a:ext cx="838317" cy="952633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2211,10 +2661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="I203" sqref="I203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2222,7 +2672,7 @@
     <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="2"/>
     <col min="3" max="3" width="5.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16" style="2"/>
+    <col min="4" max="4" width="19.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="38.25" style="2" customWidth="1"/>
     <col min="7" max="16384" width="16" style="2"/>
@@ -2230,49 +2680,49 @@
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="40" t="s">
-        <v>198</v>
+      <c r="B5" s="38" t="s">
+        <v>196</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -2281,63 +2731,63 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="41"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="41"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="3">
         <v>3</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="41"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="3">
         <v>4</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="42"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="19">
         <v>5</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F9" s="14"/>
     </row>
@@ -2351,36 +2801,36 @@
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
+      <c r="B13" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
-        <v>138</v>
+      <c r="B15" s="38" t="s">
+        <v>136</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -2389,82 +2839,82 @@
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-      <c r="B16" s="41"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="41"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="3">
         <v>3</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="42"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="19">
         <v>4</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F18" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
+      <c r="B22" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="F23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="35" t="s">
-        <v>142</v>
+      <c r="B24" s="47" t="s">
+        <v>140</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2473,46 +2923,46 @@
         <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="35"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="3">
         <v>2</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="35"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="19">
         <v>4</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F27" s="14"/>
     </row>
@@ -2539,36 +2989,36 @@
     </row>
     <row r="31" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
+      <c r="B31" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46"/>
     </row>
     <row r="32" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="F32" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="30" t="s">
-        <v>56</v>
+      <c r="B33" s="41" t="s">
+        <v>55</v>
       </c>
       <c r="C33" s="9">
         <v>1</v>
@@ -2577,12 +3027,12 @@
         <v>0</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="30"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="9">
         <v>2</v>
       </c>
@@ -2590,12 +3040,12 @@
         <v>1</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="31"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="25">
         <v>3</v>
       </c>
@@ -2603,7 +3053,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F35" s="14"/>
     </row>
@@ -2629,34 +3079,34 @@
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34"/>
+      <c r="B39" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46"/>
     </row>
     <row r="40" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D40" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="F40" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="17" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="30" t="s">
-        <v>59</v>
+      <c r="B41" s="41" t="s">
+        <v>58</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -2665,12 +3115,12 @@
         <v>0</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="30"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="4">
         <v>2</v>
       </c>
@@ -2678,12 +3128,12 @@
         <v>3</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="30"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="4">
         <v>3</v>
       </c>
@@ -2691,14 +3141,14 @@
         <v>4</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="30"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="4">
         <v>4</v>
       </c>
@@ -2706,12 +3156,12 @@
         <v>5</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="30"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="4">
         <v>5</v>
       </c>
@@ -2719,1700 +3169,2137 @@
         <v>6</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="30" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
-      <c r="B46" s="30"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="4">
         <v>6</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F46" s="11"/>
+        <v>222</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="47" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
-      <c r="B47" s="30"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="4">
         <v>7</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="4">
+      <c r="B48" s="41"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="4">
         <v>8</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="4">
         <v>9</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="D50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="41"/>
+      <c r="C51" s="4">
+        <v>10</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F51" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="42"/>
+      <c r="C52" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="30"/>
-      <c r="C49" s="4">
-        <v>9</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="F52" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="31"/>
-      <c r="C50" s="13">
-        <v>10</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="34"/>
-    </row>
-    <row r="55" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="15" t="s">
+    <row r="54" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="46"/>
+    </row>
+    <row r="57" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="35"/>
-      <c r="C57" s="3">
+      <c r="F58" s="11"/>
+    </row>
+    <row r="59" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="47"/>
+      <c r="C59" s="3">
         <v>2</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="11"/>
+    </row>
+    <row r="60" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="47"/>
+      <c r="C60" s="3">
+        <v>3</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="47"/>
+      <c r="C61" s="3">
+        <v>4</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="47"/>
+      <c r="C62" s="3">
+        <v>5</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="35"/>
-      <c r="C58" s="3">
-        <v>3</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="4" t="s">
+      <c r="F62" s="11"/>
+    </row>
+    <row r="63" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="47"/>
+      <c r="C63" s="3">
+        <v>6</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F58" s="11"/>
-    </row>
-    <row r="59" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="35"/>
-      <c r="C59" s="3">
-        <v>4</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="4" t="s">
+      <c r="F63" s="11"/>
+    </row>
+    <row r="64" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="47"/>
+      <c r="C64" s="3">
+        <v>7</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" s="11"/>
+    </row>
+    <row r="65" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="47"/>
+      <c r="C65" s="3">
+        <v>8</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F65" s="11"/>
+    </row>
+    <row r="66" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="47"/>
+      <c r="C66" s="3">
+        <v>9</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="11"/>
+    </row>
+    <row r="67" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="47"/>
+      <c r="C67" s="3">
+        <v>10</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" s="11"/>
+    </row>
+    <row r="68" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="47"/>
+      <c r="C68" s="3">
+        <v>11</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F59" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="35"/>
-      <c r="C60" s="3">
-        <v>5</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="35"/>
-      <c r="C61" s="3">
-        <v>6</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F61" s="11"/>
-    </row>
-    <row r="62" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="35"/>
-      <c r="C62" s="3">
-        <v>7</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="11"/>
-    </row>
-    <row r="63" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="35"/>
-      <c r="C63" s="3">
-        <v>8</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" s="11"/>
-    </row>
-    <row r="64" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="35"/>
-      <c r="C64" s="3">
-        <v>9</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="4" t="s">
+      <c r="F68" s="11"/>
+    </row>
+    <row r="69" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="48"/>
+      <c r="C69" s="19">
+        <v>12</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F64" s="11"/>
-    </row>
-    <row r="65" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="35"/>
-      <c r="C65" s="3">
-        <v>10</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="11"/>
-    </row>
-    <row r="66" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="35"/>
-      <c r="C66" s="3">
-        <v>11</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F66" s="11"/>
-    </row>
-    <row r="67" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="36"/>
-      <c r="C67" s="19">
-        <v>12</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F67" s="14"/>
-    </row>
-    <row r="68" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="14"/>
+    </row>
+    <row r="70" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="34"/>
-    </row>
-    <row r="72" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D72" s="16" t="s">
+    <row r="71" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="46"/>
+    </row>
+    <row r="74" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="F74" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F72" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73" s="4">
+    </row>
+    <row r="75" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="4">
         <v>1</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F73" s="11"/>
-    </row>
-    <row r="74" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="30"/>
-      <c r="C74" s="4">
+      <c r="E75" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F75" s="11"/>
+    </row>
+    <row r="76" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="41"/>
+      <c r="C76" s="4">
         <v>2</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D76" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="41"/>
+      <c r="C77" s="4">
+        <v>3</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="F77" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="41"/>
+      <c r="C78" s="4">
+        <v>4</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="30"/>
-      <c r="C75" s="4">
-        <v>3</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F75" s="26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="30"/>
-      <c r="C76" s="4">
-        <v>4</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="30"/>
-      <c r="C77" s="4">
-        <v>5</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F77" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="30"/>
-      <c r="C78" s="4">
-        <v>6</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="F78" s="26" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="30"/>
+    <row r="79" spans="2:6" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="41"/>
       <c r="C79" s="4">
+        <v>5</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="41"/>
+      <c r="C80" s="4">
+        <v>6</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="41"/>
+      <c r="C81" s="4">
         <v>7</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D81" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F81" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="42"/>
+      <c r="C82" s="13">
+        <v>8</v>
+      </c>
+      <c r="D82" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F79" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="31"/>
-      <c r="C80" s="13">
-        <v>8</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F80" s="28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E82" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F82" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="34"/>
-    </row>
-    <row r="85" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="20" t="s">
+    <row r="84" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D87" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C85" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D85" s="16" t="s">
+      <c r="E87" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="F87" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C86" s="4">
+    </row>
+    <row r="88" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="4">
         <v>1</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E88" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F88" s="11"/>
+    </row>
+    <row r="89" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="41"/>
+      <c r="C89" s="4">
+        <v>2</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F89" s="11"/>
+    </row>
+    <row r="90" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="41"/>
+      <c r="C90" s="4">
+        <v>3</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F90" s="11"/>
+    </row>
+    <row r="91" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="41"/>
+      <c r="C91" s="4">
+        <v>4</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F86" s="11"/>
-    </row>
-    <row r="87" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="30"/>
-      <c r="C87" s="4">
-        <v>2</v>
-      </c>
-      <c r="D87" s="5" t="s">
+      <c r="F91" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="41"/>
+      <c r="C92" s="4">
+        <v>5</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92" s="11"/>
+    </row>
+    <row r="93" spans="2:6" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="41"/>
+      <c r="C93" s="4">
+        <v>6</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="41"/>
+      <c r="C94" s="4">
+        <v>7</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F94" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="41"/>
+      <c r="C95" s="4">
+        <v>8</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F95" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="41"/>
+      <c r="C96" s="4">
+        <v>9</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F96" s="11"/>
+    </row>
+    <row r="97" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="41"/>
+      <c r="C97" s="4">
+        <v>10</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F97" s="11"/>
+    </row>
+    <row r="98" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="41"/>
+      <c r="C98" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F98" s="11"/>
+    </row>
+    <row r="99" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="41"/>
+      <c r="C99" s="4">
         <v>12</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F87" s="11"/>
-    </row>
-    <row r="88" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="30"/>
-      <c r="C88" s="4">
-        <v>3</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F88" s="11"/>
-    </row>
-    <row r="89" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="30"/>
-      <c r="C89" s="4">
-        <v>4</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F89" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="30"/>
-      <c r="C90" s="4">
-        <v>5</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F90" s="11"/>
-    </row>
-    <row r="91" spans="2:6" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="30"/>
-      <c r="C91" s="4">
-        <v>6</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F91" s="29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="30"/>
-      <c r="C92" s="4">
+      <c r="D99" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F92" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="30"/>
-      <c r="C93" s="4">
-        <v>8</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F93" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="30"/>
-      <c r="C94" s="4">
-        <v>9</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F94" s="11"/>
-    </row>
-    <row r="95" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="30"/>
-      <c r="C95" s="4">
-        <v>10</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E95" s="4" t="s">
+      <c r="E99" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F99" s="11"/>
+    </row>
+    <row r="100" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="41"/>
+      <c r="C100" s="4">
+        <v>13</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F100" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F95" s="11"/>
-    </row>
-    <row r="96" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="30"/>
-      <c r="C96" s="4">
-        <v>11</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F96" s="11"/>
-    </row>
-    <row r="97" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="30"/>
-      <c r="C97" s="4">
-        <v>12</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F97" s="11"/>
-    </row>
-    <row r="98" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="30"/>
-      <c r="C98" s="4">
-        <v>13</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F98" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="31"/>
-      <c r="C99" s="13">
+    </row>
+    <row r="101" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="42"/>
+      <c r="C101" s="13">
         <v>14</v>
       </c>
-      <c r="D99" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="F99" s="14"/>
-    </row>
-    <row r="100" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D101" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F101" s="14"/>
+    </row>
+    <row r="102" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="34"/>
-    </row>
-    <row r="104" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="20" t="s">
+    <row r="103" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="46"/>
+    </row>
+    <row r="106" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D106" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C104" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D104" s="16" t="s">
+      <c r="E106" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="F106" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F104" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C105" s="4">
+    </row>
+    <row r="107" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="4">
         <v>1</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F105" s="11"/>
-    </row>
-    <row r="106" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="30"/>
-      <c r="C106" s="4">
+      <c r="E107" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F107" s="11"/>
+    </row>
+    <row r="108" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="41"/>
+      <c r="C108" s="4">
         <v>2</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E108" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F108" s="11"/>
+    </row>
+    <row r="109" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="41"/>
+      <c r="C109" s="4">
+        <v>3</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="41"/>
+      <c r="C110" s="4">
+        <v>4</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F110" s="11"/>
+    </row>
+    <row r="111" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="41"/>
+      <c r="C111" s="4">
+        <v>5</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="41"/>
+      <c r="C112" s="4">
+        <v>6</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F112" s="11"/>
+    </row>
+    <row r="113" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="41"/>
+      <c r="C113" s="4">
+        <v>7</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E113" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F106" s="11"/>
-    </row>
-    <row r="107" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="30"/>
-      <c r="C107" s="4">
-        <v>3</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F107" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="30"/>
-      <c r="C108" s="4">
-        <v>4</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F108" s="11"/>
-    </row>
-    <row r="109" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="30"/>
-      <c r="C109" s="4">
-        <v>5</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E109" s="4" t="s">
+      <c r="F113" s="11"/>
+    </row>
+    <row r="114" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="41"/>
+      <c r="C114" s="4">
+        <v>8</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F114" s="11"/>
+    </row>
+    <row r="115" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="42"/>
+      <c r="C115" s="13">
+        <v>9</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F109" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="30"/>
-      <c r="C110" s="4">
-        <v>6</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F110" s="11"/>
-    </row>
-    <row r="111" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="30"/>
-      <c r="C111" s="4">
-        <v>7</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F111" s="11"/>
-    </row>
-    <row r="112" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="30"/>
-      <c r="C112" s="4">
-        <v>8</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F112" s="11"/>
-    </row>
-    <row r="113" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="31"/>
-      <c r="C113" s="13">
-        <v>9</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F113" s="14"/>
-    </row>
-    <row r="114" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F115" s="14"/>
+    </row>
+    <row r="116" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="34"/>
-    </row>
-    <row r="118" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="20" t="s">
+    <row r="117" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C119" s="45"/>
+      <c r="D119" s="45"/>
+      <c r="E119" s="45"/>
+      <c r="F119" s="46"/>
+    </row>
+    <row r="120" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D120" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C118" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D118" s="16" t="s">
+      <c r="E120" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="F120" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F118" s="17" t="s">
+    </row>
+    <row r="121" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F121" s="11"/>
+    </row>
+    <row r="122" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B122" s="47"/>
+      <c r="C122" s="3">
+        <v>2</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F122" s="11"/>
+    </row>
+    <row r="123" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B123" s="47"/>
+      <c r="C123" s="3">
+        <v>3</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B124" s="47"/>
+      <c r="C124" s="3">
+        <v>4</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="119" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="35" t="s">
+      <c r="F124" s="11"/>
+    </row>
+    <row r="125" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="47"/>
+      <c r="C125" s="3">
+        <v>5</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F125" s="11"/>
+    </row>
+    <row r="126" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="47"/>
+      <c r="C126" s="3">
+        <v>6</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F126" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="47"/>
+      <c r="C127" s="3">
+        <v>7</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C119" s="3">
-        <v>1</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F119" s="11"/>
-    </row>
-    <row r="120" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="35"/>
-      <c r="C120" s="3">
-        <v>2</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F120" s="11"/>
-    </row>
-    <row r="121" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="35"/>
-      <c r="C121" s="3">
-        <v>3</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F121" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="35"/>
-      <c r="C122" s="3">
-        <v>4</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F122" s="11"/>
-    </row>
-    <row r="123" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="35"/>
-      <c r="C123" s="3">
-        <v>5</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E123" s="3" t="s">
+      <c r="F127" s="11"/>
+    </row>
+    <row r="128" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B128" s="47"/>
+      <c r="C128" s="3">
+        <v>8</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E128" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F123" s="11"/>
-    </row>
-    <row r="124" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="35"/>
-      <c r="C124" s="3">
-        <v>6</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E124" s="4" t="s">
+      <c r="F128" s="11"/>
+    </row>
+    <row r="129" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="47"/>
+      <c r="C129" s="3">
+        <v>9</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F129" s="11"/>
+    </row>
+    <row r="130" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="48"/>
+      <c r="C130" s="19">
+        <v>10</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F124" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="35"/>
-      <c r="C125" s="3">
-        <v>7</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F125" s="11"/>
-    </row>
-    <row r="126" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B126" s="35"/>
-      <c r="C126" s="3">
-        <v>8</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F126" s="11"/>
-    </row>
-    <row r="127" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="35"/>
-      <c r="C127" s="3">
-        <v>9</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F127" s="11"/>
-    </row>
-    <row r="128" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="36"/>
-      <c r="C128" s="19">
-        <v>10</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F128" s="14"/>
-    </row>
-    <row r="129" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F130" s="14"/>
+    </row>
+    <row r="131" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="34"/>
-    </row>
-    <row r="133" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B133" s="20" t="s">
+    <row r="132" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C134" s="45"/>
+      <c r="D134" s="45"/>
+      <c r="E134" s="45"/>
+      <c r="F134" s="46"/>
+    </row>
+    <row r="135" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D135" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C133" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D133" s="16" t="s">
+      <c r="E135" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="F135" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F133" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="30" t="s">
+    </row>
+    <row r="136" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B136" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C136" s="4">
+        <v>1</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F136" s="11"/>
+    </row>
+    <row r="137" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B137" s="41"/>
+      <c r="C137" s="4">
+        <v>2</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F137" s="11"/>
+    </row>
+    <row r="138" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B138" s="41"/>
+      <c r="C138" s="4">
+        <v>3</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F138" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B139" s="41"/>
+      <c r="C139" s="4">
+        <v>4</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F139" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B140" s="41"/>
+      <c r="C140" s="4">
+        <v>5</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F140" s="11"/>
+    </row>
+    <row r="141" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="41"/>
+      <c r="C141" s="4">
+        <v>6</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F141" s="11"/>
+    </row>
+    <row r="142" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B142" s="41"/>
+      <c r="C142" s="4">
+        <v>7</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F142" s="11"/>
+    </row>
+    <row r="143" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="41"/>
+      <c r="C143" s="4">
+        <v>8</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F143" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="41"/>
+      <c r="C144" s="4">
+        <v>9</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E144" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C134" s="4">
-        <v>1</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F134" s="11"/>
-    </row>
-    <row r="135" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="30"/>
-      <c r="C135" s="4">
-        <v>2</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F135" s="11"/>
-    </row>
-    <row r="136" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="30"/>
-      <c r="C136" s="4">
-        <v>3</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F136" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="30"/>
-      <c r="C137" s="4">
-        <v>4</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E137" s="4" t="s">
+      <c r="F144" s="11"/>
+    </row>
+    <row r="145" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B145" s="41"/>
+      <c r="C145" s="4">
+        <v>10</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F145" s="11"/>
+    </row>
+    <row r="146" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="42"/>
+      <c r="C146" s="13">
+        <v>11</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F137" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B138" s="30"/>
-      <c r="C138" s="4">
-        <v>5</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F138" s="11"/>
-    </row>
-    <row r="139" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="30"/>
-      <c r="C139" s="4">
-        <v>6</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F139" s="11"/>
-    </row>
-    <row r="140" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="30"/>
-      <c r="C140" s="4">
-        <v>7</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F140" s="11"/>
-    </row>
-    <row r="141" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="30"/>
-      <c r="C141" s="4">
-        <v>8</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F141" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="30"/>
-      <c r="C142" s="4">
-        <v>9</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F142" s="11"/>
-    </row>
-    <row r="143" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="30"/>
-      <c r="C143" s="4">
-        <v>10</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F143" s="11"/>
-    </row>
-    <row r="144" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="31"/>
-      <c r="C144" s="13">
-        <v>11</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F144" s="14"/>
-    </row>
-    <row r="145" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F146" s="14"/>
+    </row>
+    <row r="147" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C148" s="33"/>
-      <c r="D148" s="33"/>
-      <c r="E148" s="33"/>
-      <c r="F148" s="34"/>
-    </row>
-    <row r="149" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B149" s="20" t="s">
+    <row r="148" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C150" s="45"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="46"/>
+    </row>
+    <row r="151" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B151" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D151" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C149" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D149" s="16" t="s">
+      <c r="E151" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="F151" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F149" s="17" t="s">
+    </row>
+    <row r="152" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B152" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C152" s="4">
+        <v>1</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F152" s="11"/>
+    </row>
+    <row r="153" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B153" s="41"/>
+      <c r="C153" s="4">
+        <v>2</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F153" s="11"/>
+    </row>
+    <row r="154" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B154" s="41"/>
+      <c r="C154" s="4">
+        <v>3</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F154" s="11"/>
+    </row>
+    <row r="155" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B155" s="41"/>
+      <c r="C155" s="4">
+        <v>4</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F155" s="11"/>
+    </row>
+    <row r="156" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B156" s="41"/>
+      <c r="C156" s="4">
+        <v>5</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F156" s="11"/>
+    </row>
+    <row r="157" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B157" s="41"/>
+      <c r="C157" s="4">
+        <v>6</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F157" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B158" s="41"/>
+      <c r="C158" s="4">
+        <v>7</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F158" s="11"/>
+    </row>
+    <row r="159" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B159" s="41"/>
+      <c r="C159" s="4">
+        <v>8</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F159" s="11"/>
+    </row>
+    <row r="160" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B160" s="41"/>
+      <c r="C160" s="4">
+        <v>9</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F160" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B161" s="41"/>
+      <c r="C161" s="4">
+        <v>10</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F161" s="11"/>
+    </row>
+    <row r="162" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B162" s="41"/>
+      <c r="C162" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F162" s="11"/>
+    </row>
+    <row r="163" spans="2:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B163" s="41"/>
+      <c r="C163" s="4">
+        <v>12</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F163" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B164" s="41"/>
+      <c r="C164" s="4">
+        <v>13</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F164" s="29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B165" s="41"/>
+      <c r="C165" s="4">
+        <v>14</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F165" s="11"/>
+    </row>
+    <row r="166" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B166" s="41"/>
+      <c r="C166" s="4">
+        <v>15</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F166" s="11"/>
+    </row>
+    <row r="167" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B167" s="41"/>
+      <c r="C167" s="4">
+        <v>16</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F167" s="11"/>
+    </row>
+    <row r="168" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="42"/>
+      <c r="C168" s="13">
+        <v>17</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F168" s="14"/>
+    </row>
+    <row r="171" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B172" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C172" s="45"/>
+      <c r="D172" s="45"/>
+      <c r="E172" s="45"/>
+      <c r="F172" s="46"/>
+    </row>
+    <row r="173" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B173" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D173" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F173" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B174" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="C174" s="4">
+        <v>1</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F174" s="11"/>
+    </row>
+    <row r="175" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B175" s="41"/>
+      <c r="C175" s="4">
+        <v>2</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F175" s="11"/>
+    </row>
+    <row r="176" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B176" s="41"/>
+      <c r="C176" s="4">
+        <v>3</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F176" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B177" s="41"/>
+      <c r="C177" s="4">
+        <v>4</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F177" s="21"/>
+    </row>
+    <row r="178" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B178" s="41"/>
+      <c r="C178" s="4">
+        <v>5</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F178" s="11"/>
+    </row>
+    <row r="179" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="41"/>
+      <c r="C179" s="4">
+        <v>6</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F179" s="11"/>
+    </row>
+    <row r="180" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B180" s="41"/>
+      <c r="C180" s="4">
+        <v>7</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F180" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B181" s="42"/>
+      <c r="C181" s="13">
+        <v>11</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E181" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F181" s="14"/>
+    </row>
+    <row r="184" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="185" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B185" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="C185" s="53"/>
+      <c r="D185" s="53"/>
+      <c r="E185" s="53"/>
+      <c r="F185" s="54"/>
+    </row>
+    <row r="186" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B186" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B187" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C187" s="4">
+        <v>1</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F187" s="11"/>
+    </row>
+    <row r="188" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B188" s="55"/>
+      <c r="C188" s="4">
+        <v>2</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F188" s="11"/>
+    </row>
+    <row r="189" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B189" s="55"/>
+      <c r="C189" s="4">
+        <v>3</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F189" s="11"/>
+    </row>
+    <row r="190" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B190" s="55"/>
+      <c r="C190" s="4">
+        <v>4</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="150" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B150" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C150" s="4">
+      <c r="F190" s="11"/>
+    </row>
+    <row r="191" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B191" s="55"/>
+      <c r="C191" s="4">
+        <v>5</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F191" s="11"/>
+    </row>
+    <row r="192" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B192" s="55"/>
+      <c r="C192" s="4">
+        <v>6</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F192" s="11"/>
+    </row>
+    <row r="193" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B193" s="55"/>
+      <c r="C193" s="4">
+        <v>7</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F193" s="11"/>
+    </row>
+    <row r="194" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B194" s="55"/>
+      <c r="C194" s="4">
+        <v>8</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F194" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B195" s="55"/>
+      <c r="C195" s="4">
+        <v>9</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F195" s="29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B196" s="55"/>
+      <c r="C196" s="4">
+        <v>10</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F196" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B197" s="55"/>
+      <c r="C197" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F197" s="11"/>
+    </row>
+    <row r="198" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B198" s="55"/>
+      <c r="C198" s="4">
+        <v>12</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F198" s="21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B199" s="55"/>
+      <c r="C199" s="4">
+        <v>13</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F199" s="11"/>
+    </row>
+    <row r="200" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B200" s="55"/>
+      <c r="C200" s="4">
+        <v>14</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F200" s="11"/>
+    </row>
+    <row r="201" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B201" s="55"/>
+      <c r="C201" s="4">
+        <v>15</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F201" s="11"/>
+    </row>
+    <row r="202" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B202" s="55"/>
+      <c r="C202" s="4">
+        <v>16</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F202" s="11"/>
+    </row>
+    <row r="203" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B203" s="55"/>
+      <c r="C203" s="4">
+        <v>17</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F203" s="11"/>
+    </row>
+    <row r="204" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B204" s="56"/>
+      <c r="C204" s="13">
+        <v>18</v>
+      </c>
+      <c r="D204" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F204" s="14"/>
+    </row>
+    <row r="207" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="208" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B208" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="C208" s="58"/>
+      <c r="D208" s="58"/>
+      <c r="E208" s="58"/>
+      <c r="F208" s="59"/>
+    </row>
+    <row r="209" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B209" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F209" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B210" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C210" s="4">
         <v>1</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D210" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F150" s="11"/>
-    </row>
-    <row r="151" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B151" s="30"/>
-      <c r="C151" s="4">
+      <c r="E210" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F210" s="11"/>
+    </row>
+    <row r="211" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B211" s="39"/>
+      <c r="C211" s="4">
         <v>2</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F151" s="11"/>
-    </row>
-    <row r="152" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="30"/>
-      <c r="C152" s="4">
+      <c r="D211" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F152" s="11"/>
-    </row>
-    <row r="153" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="30"/>
-      <c r="C153" s="4">
+      <c r="E211" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F211" s="11"/>
+    </row>
+    <row r="212" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B212" s="39"/>
+      <c r="C212" s="4">
+        <v>3</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F212" s="11"/>
+    </row>
+    <row r="213" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B213" s="39"/>
+      <c r="C213" s="4">
         <v>4</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F153" s="11"/>
-    </row>
-    <row r="154" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B154" s="30"/>
-      <c r="C154" s="4">
+      <c r="D213" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F213" s="11"/>
+    </row>
+    <row r="214" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B214" s="39"/>
+      <c r="C214" s="4">
         <v>5</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F154" s="11"/>
-    </row>
-    <row r="155" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B155" s="30"/>
-      <c r="C155" s="4">
+      <c r="D214" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F214" s="11"/>
+    </row>
+    <row r="215" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B215" s="39"/>
+      <c r="C215" s="4">
         <v>6</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E155" s="4" t="s">
+      <c r="D215" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F215" s="11"/>
+    </row>
+    <row r="216" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B216" s="39"/>
+      <c r="C216" s="4">
+        <v>7</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F216" s="11"/>
+    </row>
+    <row r="217" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B217" s="40"/>
+      <c r="C217" s="4">
+        <v>8</v>
+      </c>
+      <c r="D217" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F155" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="156" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B156" s="30"/>
-      <c r="C156" s="4">
-        <v>7</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F156" s="11"/>
-    </row>
-    <row r="157" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B157" s="30"/>
-      <c r="C157" s="4">
-        <v>8</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F157" s="11"/>
-    </row>
-    <row r="158" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="30"/>
-      <c r="C158" s="4">
-        <v>9</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F158" s="21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="159" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="30"/>
-      <c r="C159" s="4">
-        <v>10</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F159" s="11"/>
-    </row>
-    <row r="160" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B160" s="30"/>
-      <c r="C160" s="4">
-        <v>11</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F160" s="11"/>
-    </row>
-    <row r="161" spans="2:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B161" s="30"/>
-      <c r="C161" s="4">
-        <v>12</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F161" s="29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="162" spans="2:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B162" s="30"/>
-      <c r="C162" s="4">
-        <v>13</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F162" s="29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="163" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B163" s="30"/>
-      <c r="C163" s="4">
-        <v>14</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F163" s="11"/>
-    </row>
-    <row r="164" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="30"/>
-      <c r="C164" s="4">
-        <v>15</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F164" s="11"/>
-    </row>
-    <row r="165" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="30"/>
-      <c r="C165" s="4">
-        <v>16</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F165" s="11"/>
-    </row>
-    <row r="166" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="31"/>
-      <c r="C166" s="13">
-        <v>17</v>
-      </c>
-      <c r="D166" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E166" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F166" s="14"/>
-    </row>
-    <row r="169" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="170" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="C170" s="33"/>
-      <c r="D170" s="33"/>
-      <c r="E170" s="33"/>
-      <c r="F170" s="34"/>
-    </row>
-    <row r="171" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C171" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D171" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E171" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F171" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="172" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B172" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C172" s="4">
-        <v>1</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F172" s="11"/>
-    </row>
-    <row r="173" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B173" s="30"/>
-      <c r="C173" s="4">
-        <v>2</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F173" s="11"/>
-    </row>
-    <row r="174" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B174" s="30"/>
-      <c r="C174" s="4">
-        <v>3</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F174" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="175" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B175" s="30"/>
-      <c r="C175" s="4">
-        <v>4</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F175" s="21"/>
-    </row>
-    <row r="176" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="30"/>
-      <c r="C176" s="4">
-        <v>5</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F176" s="11"/>
-    </row>
-    <row r="177" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="30"/>
-      <c r="C177" s="4">
-        <v>6</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F177" s="11"/>
-    </row>
-    <row r="178" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B178" s="30"/>
-      <c r="C178" s="4">
-        <v>7</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F178" s="27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="179" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="31"/>
-      <c r="C179" s="13">
-        <v>11</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E179" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F179" s="14"/>
+      <c r="F217" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="31">
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B187:B204"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B210:B217"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B88:B101"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B174:B181"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B121:B130"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B136:B146"/>
+    <mergeCell ref="B152:B168"/>
+    <mergeCell ref="B150:F150"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B105:B113"/>
+    <mergeCell ref="B107:B115"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B56:B67"/>
+    <mergeCell ref="B41:B52"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B58:B69"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B73:B80"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B86:B99"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B172:B179"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B119:B128"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B134:B144"/>
-    <mergeCell ref="B150:B166"/>
-    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B75:B82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4437,49 +5324,49 @@
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="40" t="s">
-        <v>203</v>
+      <c r="B5" s="38" t="s">
+        <v>201</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -4488,49 +5375,49 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="41"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="41"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="3">
         <v>4</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="42"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="19">
         <v>5</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F8" s="14"/>
     </row>
@@ -4548,34 +5435,34 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
+      <c r="B12" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="35" t="s">
-        <v>138</v>
+      <c r="B14" s="47" t="s">
+        <v>136</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -4584,79 +5471,79 @@
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="35"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="35"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="19">
         <v>4</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F17" s="14"/>
     </row>
     <row r="20" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
+      <c r="B21" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
     </row>
     <row r="22" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="F22" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="23" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="40" t="s">
-        <v>145</v>
+      <c r="B23" s="38" t="s">
+        <v>143</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -4665,245 +5552,245 @@
         <v>0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="41"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="41"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="41"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="3">
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="41"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="3">
         <v>5</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="41"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="3">
         <v>6</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="2:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="41"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="3">
         <v>7</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="41"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="3">
         <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="41"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="3">
         <v>9</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="41"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="3">
         <v>10</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F32" s="11"/>
     </row>
     <row r="33" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="41"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="3">
         <v>11</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="41"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="3">
         <v>12</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="41"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="3">
         <v>13</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="41"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="3">
         <v>14</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="F36" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="41"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="3">
         <v>15</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="42"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="19">
         <v>16</v>
       </c>
       <c r="D38" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F38" s="24" t="s">
         <v>217</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46"/>
+      <c r="B42" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="51"/>
     </row>
     <row r="43" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D43" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="F43" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="44" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="40" t="s">
-        <v>175</v>
+      <c r="B44" s="38" t="s">
+        <v>173</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4912,172 +5799,172 @@
         <v>0</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F44" s="11"/>
     </row>
     <row r="45" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="41"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="3">
         <v>2</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F45" s="11"/>
     </row>
     <row r="46" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="41"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="3">
         <v>3</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F46" s="11"/>
     </row>
     <row r="47" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="41"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="3">
         <v>4</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="F47" s="11"/>
     </row>
     <row r="48" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="41"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="3">
         <v>5</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="F48" s="11"/>
     </row>
     <row r="49" spans="2:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="41"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="3">
         <v>6</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="41"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="3">
         <v>7</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="41"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="3">
         <v>8</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F51" s="11"/>
     </row>
     <row r="52" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="41"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="3">
         <v>9</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" s="11"/>
     </row>
     <row r="53" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="41"/>
+      <c r="B53" s="39"/>
       <c r="C53" s="3">
         <v>10</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F53" s="11"/>
     </row>
     <row r="54" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="41"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="3">
         <v>11</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="11"/>
     </row>
     <row r="55" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="41"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="3">
         <v>12</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="42"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="19">
         <v>13</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
